--- a/v1.1_Multifuel_Database/Validation.xlsx
+++ b/v1.1_Multifuel_Database/Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ee2475784414c/Masaüstü/GitHub/Virtual-Engine-Test-Bench/v1.1_Multifuel_Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E778DD-289B-44DA-8C86-AC9103593E35}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254F31F9-EB5E-4E4E-AD8F-BEFDDB27FC37}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +157,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2136,6 +2139,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2402,7 +2409,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M22"/>
+      <selection activeCell="P77" sqref="P15:S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2502,7 @@
         <v>27.795620439113002</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:L33" si="0">ABS(H2-B2)/H2</f>
+        <f t="shared" ref="J2:J33" si="0">ABS(H2-B2)/H2</f>
         <v>4.6415807584616851E-2</v>
       </c>
       <c r="K2" s="6">
@@ -5701,27 +5708,27 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63" s="4">
-        <f>AVERAGE(J2:J62)</f>
+        <f t="shared" ref="J63:O63" si="10">AVERAGE(J2:J62)</f>
         <v>5.1731139552901262E-2</v>
       </c>
       <c r="K63" s="4">
-        <f>AVERAGE(K2:K62)</f>
+        <f t="shared" si="10"/>
         <v>2.8927832752094991E-2</v>
       </c>
-      <c r="L63" s="4">
-        <f>AVERAGE(L2:L62)</f>
+      <c r="L63" s="7">
+        <f t="shared" si="10"/>
         <v>3.5959347440884436E-2</v>
       </c>
       <c r="M63" s="4">
-        <f>AVERAGE(M2:M62)</f>
+        <f t="shared" si="10"/>
         <v>6.4364959322266282E-2</v>
       </c>
       <c r="N63" s="4">
-        <f>AVERAGE(N2:N62)</f>
+        <f t="shared" si="10"/>
         <v>3.7877963804002747E-2</v>
       </c>
       <c r="O63" s="4">
-        <f>AVERAGE(O2:O62)</f>
+        <f t="shared" si="10"/>
         <v>5.0142733497773942E-2</v>
       </c>
     </row>
@@ -5731,11 +5738,11 @@
         <v>2.0874042796618891E-2</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" ref="K64:L64" si="10">_xlfn.STDEV.S(K2:K62)</f>
+        <f t="shared" ref="K64:L64" si="11">_xlfn.STDEV.S(K2:K62)</f>
         <v>1.3526180502805242E-2</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2100007294625794E-2</v>
       </c>
       <c r="M64" s="5"/>

--- a/v1.1_Multifuel_Database/Validation.xlsx
+++ b/v1.1_Multifuel_Database/Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ee2475784414c/Masaüstü/GitHub/Virtual-Engine-Test-Bench/v1.1_Multifuel_Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254F31F9-EB5E-4E4E-AD8F-BEFDDB27FC37}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776DE396-E390-4609-82FB-9B287B9CA688}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1043,187 +1043,187 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>2.8156551072430158E-2</c:v>
+                  <c:v>3.9037998857246591E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3799739114229554E-2</c:v>
+                  <c:v>1.766025495027429E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1970204841711422E-2</c:v>
+                  <c:v>7.4951825763116256E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8551131432745498E-2</c:v>
+                  <c:v>9.450450385456589E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9428759434873061E-2</c:v>
+                  <c:v>1.0697554996449605E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7310299151421477E-2</c:v>
+                  <c:v>1.2680428587348264E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7359947643979068E-2</c:v>
+                  <c:v>1.4077955094643517E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9014064995908675E-2</c:v>
+                  <c:v>1.412987908803707E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3531184544488806E-2</c:v>
+                  <c:v>1.2341440575636204E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8218233142283131E-2</c:v>
+                  <c:v>8.0060834344595506E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.126820223545344E-2</c:v>
+                  <c:v>4.5821094049231263E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0519848184014328E-2</c:v>
+                  <c:v>2.7703762983371204E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.587319093489607E-2</c:v>
+                  <c:v>3.6177044069057779E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6693290294642946E-2</c:v>
+                  <c:v>4.4938656746772207E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4593233807512788E-2</c:v>
+                  <c:v>4.5472434995569619E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6823021582732817E-2</c:v>
+                  <c:v>4.5079394168874437E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6694993124139831E-2</c:v>
+                  <c:v>5.0020769957355091E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7770855734766614E-2</c:v>
+                  <c:v>5.6065703405017438E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7908683329666075E-2</c:v>
+                  <c:v>5.0906773518366873E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4727180065888864E-2</c:v>
+                  <c:v>5.2541969263998393E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7256686397679049E-2</c:v>
+                  <c:v>5.2105252879115833E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6867038642367437E-2</c:v>
+                  <c:v>5.2457675790447238E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9074188596490714E-2</c:v>
+                  <c:v>4.3157149122806451E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6694777309533105E-2</c:v>
+                  <c:v>4.3763441968133213E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.8058597907914354E-2</c:v>
+                  <c:v>4.5850826008310946E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6733884297518679E-2</c:v>
+                  <c:v>3.5303321989951154E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3358600177239831E-2</c:v>
+                  <c:v>3.2701340689674209E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1754961692614275E-2</c:v>
+                  <c:v>2.9607255300170554E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3303557864110993E-2</c:v>
+                  <c:v>2.4192202775802567E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.3566964502345868E-3</c:v>
+                  <c:v>1.9073233072162944E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.5196459412523732E-4</c:v>
+                  <c:v>1.2751144214159809E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0201673043262337E-3</c:v>
+                  <c:v>1.0305816743400904E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.7767880196462285E-4</c:v>
+                  <c:v>1.3697865565020621E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.5403787979500284E-3</c:v>
+                  <c:v>1.9279656885675386E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2344371841952501E-2</c:v>
+                  <c:v>2.7759503438035273E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6063139482635164E-2</c:v>
+                  <c:v>4.2430985621668436E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.481146882797561E-2</c:v>
+                  <c:v>5.3746158608655177E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7209802641824517E-2</c:v>
+                  <c:v>5.6115817103514695E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.4284438394024792E-2</c:v>
+                  <c:v>5.3186349432255961E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4869805122809162E-2</c:v>
+                  <c:v>5.3786723185691804E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1049914512200686E-2</c:v>
+                  <c:v>5.0067084607014381E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.371214040821148E-2</c:v>
+                  <c:v>5.266468437627421E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.1398442569758184E-2</c:v>
+                  <c:v>5.0458514284761696E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0034915938467587E-2</c:v>
+                  <c:v>4.703617801068978E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5671615989117276E-2</c:v>
+                  <c:v>4.4915511952105337E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2648067917459661E-2</c:v>
+                  <c:v>4.2028565817698399E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.833567296239352E-2</c:v>
+                  <c:v>3.7797622086096057E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7288461538460489E-2</c:v>
+                  <c:v>3.6849017094016112E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0856901709400646E-2</c:v>
+                  <c:v>4.0426239316238281E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.235863247863135E-2</c:v>
+                  <c:v>4.1904551282050236E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3566838046271785E-2</c:v>
+                  <c:v>4.3171808054840798E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.8322176817797329E-2</c:v>
+                  <c:v>3.8097143845537258E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8495117911163018E-2</c:v>
+                  <c:v>3.8354474521598521E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.942053805298647E-2</c:v>
+                  <c:v>3.9351332837126496E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6126801152735702E-2</c:v>
+                  <c:v>3.6137729993347578E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2155790513387754E-2</c:v>
+                  <c:v>3.2345814532962806E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.2762390587354005E-3</c:v>
+                  <c:v>2.4729227292955479E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.272695510394514E-3</c:v>
+                  <c:v>1.3523414662551385E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.4647250156244022E-2</c:v>
+                  <c:v>6.414005832999164E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.0665749824274351E-2</c:v>
+                  <c:v>1.9021081262800055E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.6771411012782973E-2</c:v>
+                  <c:v>1.5079744346116199E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P77" sqref="P15:S77"/>
+      <selection activeCell="H1" activeCellId="2" sqref="D1:D1048576 F1:F1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,7 +2490,7 @@
         <v>27.782</v>
       </c>
       <c r="F2">
-        <v>248.303</v>
+        <v>265.471</v>
       </c>
       <c r="G2">
         <v>26.001999999999999</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="L2" s="6">
         <f>ABS(H2-F2)/H2</f>
-        <v>2.8156551072430158E-2</v>
+        <v>3.9037998857246591E-2</v>
       </c>
       <c r="M2" s="6">
         <f t="shared" ref="M2:M33" si="2">ABS(I2-C2)/I2</f>
@@ -2543,7 +2543,7 @@
         <v>30.873999999999999</v>
       </c>
       <c r="F3">
-        <v>252.81899999999999</v>
+        <v>269.06900000000002</v>
       </c>
       <c r="G3">
         <v>29.123000000000001</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L62" si="4">ABS(H3-F3)/H3</f>
-        <v>4.3799739114229554E-2</v>
+        <v>1.766025495027429E-2</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="2"/>
@@ -2596,7 +2596,7 @@
         <v>34.024000000000001</v>
       </c>
       <c r="F4">
-        <v>256.404</v>
+        <v>272.48700000000002</v>
       </c>
       <c r="G4">
         <v>32.220999999999997</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="L4" s="6">
         <f t="shared" si="4"/>
-        <v>5.1970204841711422E-2</v>
+        <v>7.4951825763116256E-3</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" si="2"/>
@@ -2649,7 +2649,7 @@
         <v>37.231999999999999</v>
       </c>
       <c r="F5">
-        <v>259.86799999999999</v>
+        <v>275.76900000000001</v>
       </c>
       <c r="G5">
         <v>35.377000000000002</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="L5" s="6">
         <f t="shared" si="4"/>
-        <v>5.8551131432745498E-2</v>
+        <v>9.450450385456589E-4</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
@@ -2702,7 +2702,7 @@
         <v>40.499000000000002</v>
       </c>
       <c r="F6">
-        <v>263.226</v>
+        <v>279.839</v>
       </c>
       <c r="G6">
         <v>38.591000000000001</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="4"/>
-        <v>6.9428759434873061E-2</v>
+        <v>1.0697554996449605E-2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
@@ -2755,7 +2755,7 @@
         <v>43.823</v>
       </c>
       <c r="F7">
-        <v>267.25900000000001</v>
+        <v>282.91300000000001</v>
       </c>
       <c r="G7">
         <v>41.981000000000002</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="L7" s="6">
         <f t="shared" si="4"/>
-        <v>6.7310299151421477E-2</v>
+        <v>1.2680428587348264E-2</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
@@ -2808,7 +2808,7 @@
         <v>47.206000000000003</v>
       </c>
       <c r="F8">
-        <v>270.452</v>
+        <v>285.90300000000002</v>
       </c>
       <c r="G8">
         <v>45.314999999999998</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L8" s="6">
         <f t="shared" si="4"/>
-        <v>6.7359947643979068E-2</v>
+        <v>1.4077955094643517E-2</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="2"/>
@@ -2861,7 +2861,7 @@
         <v>50.648000000000003</v>
       </c>
       <c r="F9">
-        <v>273.57499999999999</v>
+        <v>289.70299999999997</v>
       </c>
       <c r="G9">
         <v>48.703000000000003</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="L9" s="6">
         <f t="shared" si="4"/>
-        <v>6.9014064995908675E-2</v>
+        <v>1.412987908803707E-2</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
@@ -2914,7 +2914,7 @@
         <v>54.149000000000001</v>
       </c>
       <c r="F10">
-        <v>277.39299999999997</v>
+        <v>292.55599999999998</v>
       </c>
       <c r="G10">
         <v>52.286999999999999</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="L10" s="6">
         <f t="shared" si="4"/>
-        <v>6.3531184544488806E-2</v>
+        <v>1.2341440575636204E-2</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="2"/>
@@ -2967,7 +2967,7 @@
         <v>57.709000000000003</v>
       </c>
       <c r="F11">
-        <v>280.40300000000002</v>
+        <v>295.35300000000001</v>
       </c>
       <c r="G11">
         <v>55.790999999999997</v>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="L11" s="6">
         <f t="shared" si="4"/>
-        <v>5.8218233142283131E-2</v>
+        <v>8.0060834344595506E-3</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
@@ -3020,7 +3020,7 @@
         <v>61.329000000000001</v>
       </c>
       <c r="F12">
-        <v>284.11500000000001</v>
+        <v>298.096</v>
       </c>
       <c r="G12">
         <v>59.505000000000003</v>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="L12" s="6">
         <f t="shared" si="4"/>
-        <v>5.126820223545344E-2</v>
+        <v>4.5821094049231263E-3</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="2"/>
@@ -3073,7 +3073,7 @@
         <v>65.009</v>
       </c>
       <c r="F13">
-        <v>287.03199999999998</v>
+        <v>300.25400000000002</v>
       </c>
       <c r="G13">
         <v>63.122</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="4"/>
-        <v>7.0519848184014328E-2</v>
+        <v>2.7703762983371204E-2</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
@@ -3126,7 +3126,7 @@
         <v>68.748999999999995</v>
       </c>
       <c r="F14">
-        <v>289.90600000000001</v>
+        <v>302.35899999999998</v>
       </c>
       <c r="G14">
         <v>66.790000000000006</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="L14" s="6">
         <f t="shared" si="4"/>
-        <v>7.587319093489607E-2</v>
+        <v>3.6177044069057779E-2</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="2"/>
@@ -3179,7 +3179,7 @@
         <v>72.55</v>
       </c>
       <c r="F15">
-        <v>293.49599999999998</v>
+        <v>303.58999999999997</v>
       </c>
       <c r="G15">
         <v>70.69</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="4"/>
-        <v>7.6693290294642946E-2</v>
+        <v>4.4938656746772207E-2</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="2"/>
@@ -3232,7 +3232,7 @@
         <v>76.412000000000006</v>
       </c>
       <c r="F16">
-        <v>296.3</v>
+        <v>305.62400000000002</v>
       </c>
       <c r="G16">
         <v>74.468000000000004</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="4"/>
-        <v>7.4593233807512788E-2</v>
+        <v>4.5472434995569619E-2</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="2"/>
@@ -3285,7 +3285,7 @@
         <v>80.335999999999999</v>
       </c>
       <c r="F17">
-        <v>299.82</v>
+        <v>306.80599999999998</v>
       </c>
       <c r="G17">
         <v>78.492999999999995</v>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="L17" s="6">
         <f t="shared" si="4"/>
-        <v>6.6823021582732817E-2</v>
+        <v>4.5079394168874437E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="2"/>
@@ -3338,7 +3338,7 @@
         <v>84.128</v>
       </c>
       <c r="F18">
-        <v>301.80599999999998</v>
+        <v>307.19799999999998</v>
       </c>
       <c r="G18">
         <v>82.173000000000002</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="L18" s="6">
         <f t="shared" si="4"/>
-        <v>6.6694993124139831E-2</v>
+        <v>5.0020769957355091E-2</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="2"/>
@@ -3391,7 +3391,7 @@
         <v>87.966999999999999</v>
       </c>
       <c r="F19">
-        <v>303.75700000000001</v>
+        <v>307.57100000000003</v>
       </c>
       <c r="G19">
         <v>85.885000000000005</v>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="L19" s="6">
         <f t="shared" si="4"/>
-        <v>6.7770855734766614E-2</v>
+        <v>5.6065703405017438E-2</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
@@ -3444,7 +3444,7 @@
         <v>92.018000000000001</v>
       </c>
       <c r="F20">
-        <v>307.03800000000001</v>
+        <v>309.32</v>
       </c>
       <c r="G20">
         <v>90.028000000000006</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="L20" s="6">
         <f t="shared" si="4"/>
-        <v>5.7908683329666075E-2</v>
+        <v>5.0906773518366873E-2</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="2"/>
@@ -3497,7 +3497,7 @@
         <v>96.305000000000007</v>
       </c>
       <c r="F21">
-        <v>310.15800000000002</v>
+        <v>310.875</v>
       </c>
       <c r="G21">
         <v>94.191000000000003</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="L21" s="6">
         <f t="shared" si="4"/>
-        <v>5.4727180065888864E-2</v>
+        <v>5.2541969263998393E-2</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="2"/>
@@ -3550,7 +3550,7 @@
         <v>100.66500000000001</v>
       </c>
       <c r="F22">
-        <v>314.00700000000001</v>
+        <v>312.40899999999999</v>
       </c>
       <c r="G22">
         <v>98.647999999999996</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="L22" s="6">
         <f t="shared" si="4"/>
-        <v>4.7256686397679049E-2</v>
+        <v>5.2105252879115833E-2</v>
       </c>
       <c r="M22" s="6">
         <f t="shared" si="2"/>
@@ -3603,7 +3603,7 @@
         <v>105.05200000000001</v>
       </c>
       <c r="F23">
-        <v>316.93599999999998</v>
+        <v>315.077</v>
       </c>
       <c r="G23">
         <v>102.887</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="L23" s="6">
         <f t="shared" si="4"/>
-        <v>4.6867038642367437E-2</v>
+        <v>5.2457675790447238E-2</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="2"/>
@@ -3656,7 +3656,7 @@
         <v>109.512</v>
       </c>
       <c r="F24">
-        <v>319.84100000000001</v>
+        <v>318.48200000000003</v>
       </c>
       <c r="G24">
         <v>107.18</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="L24" s="6">
         <f t="shared" si="4"/>
-        <v>3.9074188596490714E-2</v>
+        <v>4.3157149122806451E-2</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="2"/>
@@ -3709,7 +3709,7 @@
         <v>113.968</v>
       </c>
       <c r="F25">
-        <v>323.25200000000001</v>
+        <v>320.88</v>
       </c>
       <c r="G25">
         <v>111.708</v>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="L25" s="6">
         <f t="shared" si="4"/>
-        <v>3.6694777309533105E-2</v>
+        <v>4.3763441968133213E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="2"/>
@@ -3762,7 +3762,7 @@
         <v>118.413</v>
       </c>
       <c r="F26">
-        <v>325.65800000000002</v>
+        <v>323.02</v>
       </c>
       <c r="G26">
         <v>115.949</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="L26" s="6">
         <f t="shared" si="4"/>
-        <v>3.8058597907914354E-2</v>
+        <v>4.5850826008310946E-2</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" si="2"/>
@@ -3815,7 +3815,7 @@
         <v>122.922</v>
       </c>
       <c r="F27">
-        <v>328.79700000000003</v>
+        <v>325.90199999999999</v>
       </c>
       <c r="G27">
         <v>120.511</v>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="L27" s="6">
         <f t="shared" si="4"/>
-        <v>2.6733884297518679E-2</v>
+        <v>3.5303321989951154E-2</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="2"/>
@@ -3868,7 +3868,7 @@
         <v>127.27</v>
       </c>
       <c r="F28">
-        <v>330.53899999999999</v>
+        <v>327.37700000000001</v>
       </c>
       <c r="G28">
         <v>124.61</v>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="L28" s="6">
         <f t="shared" si="4"/>
-        <v>2.3358600177239831E-2</v>
+        <v>3.2701340689674209E-2</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="2"/>
@@ -3921,7 +3921,7 @@
         <v>131.66800000000001</v>
       </c>
       <c r="F29">
-        <v>332.25700000000001</v>
+        <v>329.59</v>
       </c>
       <c r="G29">
         <v>128.73699999999999</v>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="L29" s="6">
         <f t="shared" si="4"/>
-        <v>2.1754961692614275E-2</v>
+        <v>2.9607255300170554E-2</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="2"/>
@@ -3974,7 +3974,7 @@
         <v>136.05699999999999</v>
       </c>
       <c r="F30">
-        <v>334.55799999999999</v>
+        <v>330.86599999999999</v>
       </c>
       <c r="G30">
         <v>133.13200000000001</v>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="L30" s="6">
         <f t="shared" si="4"/>
-        <v>1.3303557864110993E-2</v>
+        <v>2.4192202775802567E-2</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="2"/>
@@ -4027,7 +4027,7 @@
         <v>140.43100000000001</v>
       </c>
       <c r="F31">
-        <v>335.92099999999999</v>
+        <v>331.95600000000002</v>
       </c>
       <c r="G31">
         <v>137.19300000000001</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="L31" s="6">
         <f t="shared" si="4"/>
-        <v>7.3566964502345868E-3</v>
+        <v>1.9073233072162944E-2</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" si="2"/>
@@ -4080,7 +4080,7 @@
         <v>144.84899999999999</v>
       </c>
       <c r="F32">
-        <v>338.017</v>
+        <v>333.791</v>
       </c>
       <c r="G32">
         <v>141.58799999999999</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="L32" s="6">
         <f t="shared" si="4"/>
-        <v>2.5196459412523732E-4</v>
+        <v>1.2751144214159809E-2</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="2"/>
@@ -4133,7 +4133,7 @@
         <v>148.55699999999999</v>
       </c>
       <c r="F33">
-        <v>338.70600000000002</v>
+        <v>334.20600000000002</v>
       </c>
       <c r="G33">
         <v>145.42400000000001</v>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="L33" s="6">
         <f t="shared" si="4"/>
-        <v>3.0201673043262337E-3</v>
+        <v>1.0305816743400904E-2</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="2"/>
@@ -4186,7 +4186,7 @@
         <v>152.261</v>
       </c>
       <c r="F34">
-        <v>339.36900000000003</v>
+        <v>334.59399999999999</v>
       </c>
       <c r="G34">
         <v>149.262</v>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="L34" s="6">
         <f t="shared" si="4"/>
-        <v>3.7767880196462285E-4</v>
+        <v>1.3697865565020621E-2</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" ref="M34:M62" si="8">ABS(I34-C34)/I34</f>
@@ -4239,7 +4239,7 @@
         <v>155.858</v>
       </c>
       <c r="F35">
-        <v>340.52600000000001</v>
+        <v>335.48399999999998</v>
       </c>
       <c r="G35">
         <v>153.33699999999999</v>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L35" s="6">
         <f t="shared" si="4"/>
-        <v>4.5403787979500284E-3</v>
+        <v>1.9279656885675386E-2</v>
       </c>
       <c r="M35" s="6">
         <f t="shared" si="8"/>
@@ -4292,7 +4292,7 @@
         <v>159.34</v>
       </c>
       <c r="F36">
-        <v>340.66300000000001</v>
+        <v>335.346</v>
       </c>
       <c r="G36">
         <v>156.96600000000001</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="L36" s="6">
         <f t="shared" si="4"/>
-        <v>1.2344371841952501E-2</v>
+        <v>2.7759503438035273E-2</v>
       </c>
       <c r="M36" s="6">
         <f t="shared" si="8"/>
@@ -4345,7 +4345,7 @@
         <v>162.80600000000001</v>
       </c>
       <c r="F37">
-        <v>340.774</v>
+        <v>335.04700000000003</v>
       </c>
       <c r="G37">
         <v>160.58600000000001</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="L37" s="6">
         <f t="shared" si="4"/>
-        <v>2.6063139482635164E-2</v>
+        <v>4.2430985621668436E-2</v>
       </c>
       <c r="M37" s="6">
         <f t="shared" si="8"/>
@@ -4398,7 +4398,7 @@
         <v>166.14599999999999</v>
       </c>
       <c r="F38">
-        <v>341.37700000000001</v>
+        <v>334.68</v>
       </c>
       <c r="G38">
         <v>164.44499999999999</v>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L38" s="6">
         <f t="shared" si="4"/>
-        <v>3.481146882797561E-2</v>
+        <v>5.3746158608655177E-2</v>
       </c>
       <c r="M38" s="6">
         <f t="shared" si="8"/>
@@ -4451,7 +4451,7 @@
         <v>169.464</v>
       </c>
       <c r="F39">
-        <v>341.19799999999998</v>
+        <v>334.49799999999999</v>
       </c>
       <c r="G39">
         <v>167.93199999999999</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="L39" s="6">
         <f t="shared" si="4"/>
-        <v>3.7209802641824517E-2</v>
+        <v>5.6115817103514695E-2</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="8"/>
@@ -4504,7 +4504,7 @@
         <v>172.75899999999999</v>
       </c>
       <c r="F40">
-        <v>341.74700000000001</v>
+        <v>335.05799999999999</v>
       </c>
       <c r="G40">
         <v>171.78100000000001</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="L40" s="6">
         <f t="shared" si="4"/>
-        <v>3.4284438394024792E-2</v>
+        <v>5.3186349432255961E-2</v>
       </c>
       <c r="M40" s="6">
         <f t="shared" si="8"/>
@@ -4557,7 +4557,7 @@
         <v>176.03</v>
       </c>
       <c r="F41">
-        <v>341.524</v>
+        <v>334.83</v>
       </c>
       <c r="G41">
         <v>175.245</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="L41" s="6">
         <f t="shared" si="4"/>
-        <v>3.4869805122809162E-2</v>
+        <v>5.3786723185691804E-2</v>
       </c>
       <c r="M41" s="6">
         <f t="shared" si="8"/>
@@ -4610,7 +4610,7 @@
         <v>179.27799999999999</v>
       </c>
       <c r="F42">
-        <v>341.27199999999999</v>
+        <v>334.57400000000001</v>
       </c>
       <c r="G42">
         <v>178.69</v>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="L42" s="6">
         <f t="shared" si="4"/>
-        <v>3.1049914512200686E-2</v>
+        <v>5.0067084607014381E-2</v>
       </c>
       <c r="M42" s="6">
         <f t="shared" si="8"/>
@@ -4663,7 +4663,7 @@
         <v>182.078</v>
       </c>
       <c r="F43">
-        <v>340.98500000000001</v>
+        <v>334.29700000000003</v>
       </c>
       <c r="G43">
         <v>182.11</v>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="L43" s="6">
         <f t="shared" si="4"/>
-        <v>3.371214040821148E-2</v>
+        <v>5.266468437627421E-2</v>
       </c>
       <c r="M43" s="6">
         <f t="shared" si="8"/>
@@ -4716,7 +4716,7 @@
         <v>184.83500000000001</v>
       </c>
       <c r="F44">
-        <v>339.92399999999998</v>
+        <v>333.23500000000001</v>
       </c>
       <c r="G44">
         <v>185.10300000000001</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="L44" s="6">
         <f t="shared" si="4"/>
-        <v>3.1398442569758184E-2</v>
+        <v>5.0458514284761696E-2</v>
       </c>
       <c r="M44" s="6">
         <f t="shared" si="8"/>
@@ -4769,7 +4769,7 @@
         <v>187.548</v>
       </c>
       <c r="F45">
-        <v>338.83499999999998</v>
+        <v>332.89600000000002</v>
       </c>
       <c r="G45">
         <v>188.059</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="L45" s="6">
         <f t="shared" si="4"/>
-        <v>3.0034915938467587E-2</v>
+        <v>4.703617801068978E-2</v>
       </c>
       <c r="M45" s="6">
         <f t="shared" si="8"/>
@@ -4822,7 +4822,7 @@
         <v>190.21600000000001</v>
       </c>
       <c r="F46">
-        <v>338.46499999999997</v>
+        <v>331.78</v>
       </c>
       <c r="G46">
         <v>191.398</v>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="L46" s="6">
         <f t="shared" si="4"/>
-        <v>2.5671615989117276E-2</v>
+        <v>4.4915511952105337E-2</v>
       </c>
       <c r="M46" s="6">
         <f t="shared" si="8"/>
@@ -4875,7 +4875,7 @@
         <v>192.839</v>
       </c>
       <c r="F47">
-        <v>337.32400000000001</v>
+        <v>330.63499999999999</v>
       </c>
       <c r="G47">
         <v>194.285</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="L47" s="6">
         <f t="shared" si="4"/>
-        <v>2.2648067917459661E-2</v>
+        <v>4.2028565817698399E-2</v>
       </c>
       <c r="M47" s="6">
         <f t="shared" si="8"/>
@@ -4928,7 +4928,7 @@
         <v>195.417</v>
       </c>
       <c r="F48">
-        <v>336.89</v>
+        <v>330.21100000000001</v>
       </c>
       <c r="G48">
         <v>197.56299999999999</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="L48" s="6">
         <f t="shared" si="4"/>
-        <v>1.833567296239352E-2</v>
+        <v>3.7797622086096057E-2</v>
       </c>
       <c r="M48" s="6">
         <f t="shared" si="8"/>
@@ -4981,7 +4981,7 @@
         <v>197.947</v>
       </c>
       <c r="F49">
-        <v>335.7</v>
+        <v>329.01799999999997</v>
       </c>
       <c r="G49">
         <v>200.38</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="L49" s="6">
         <f t="shared" si="4"/>
-        <v>1.7288461538460489E-2</v>
+        <v>3.6849017094016112E-2</v>
       </c>
       <c r="M49" s="6">
         <f t="shared" si="8"/>
@@ -5034,7 +5034,7 @@
         <v>200.43</v>
       </c>
       <c r="F50">
-        <v>334.48099999999999</v>
+        <v>327.79599999999999</v>
       </c>
       <c r="G50">
         <v>203.155</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="L50" s="6">
         <f t="shared" si="4"/>
-        <v>2.0856901709400646E-2</v>
+        <v>4.0426239316238281E-2</v>
       </c>
       <c r="M50" s="6">
         <f t="shared" si="8"/>
@@ -5087,7 +5087,7 @@
         <v>202.86600000000001</v>
       </c>
       <c r="F51">
-        <v>333.96800000000002</v>
+        <v>327.291</v>
       </c>
       <c r="G51">
         <v>206.34100000000001</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="L51" s="6">
         <f t="shared" si="4"/>
-        <v>2.235863247863135E-2</v>
+        <v>4.1904551282050236E-2</v>
       </c>
       <c r="M51" s="6">
         <f t="shared" si="8"/>
@@ -5140,7 +5140,7 @@
         <v>205.25200000000001</v>
       </c>
       <c r="F52">
-        <v>332.7</v>
+        <v>326.02</v>
       </c>
       <c r="G52">
         <v>209.041</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="L52" s="6">
         <f t="shared" si="4"/>
-        <v>2.3566838046271785E-2</v>
+        <v>4.3171808054840798E-2</v>
       </c>
       <c r="M52" s="6">
         <f t="shared" si="8"/>
@@ -5193,7 +5193,7 @@
         <v>207.589</v>
       </c>
       <c r="F53">
-        <v>331.41300000000001</v>
+        <v>324.73700000000002</v>
       </c>
       <c r="G53">
         <v>211.70400000000001</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="L53" s="6">
         <f t="shared" si="4"/>
-        <v>1.8322176817797329E-2</v>
+        <v>3.8097143845537258E-2</v>
       </c>
       <c r="M53" s="6">
         <f t="shared" si="8"/>
@@ -5246,7 +5246,7 @@
         <v>209.876</v>
       </c>
       <c r="F54">
-        <v>328.71100000000001</v>
+        <v>322.06</v>
       </c>
       <c r="G54">
         <v>213.42</v>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="L54" s="6">
         <f t="shared" si="4"/>
-        <v>1.8495117911163018E-2</v>
+        <v>3.8354474521598521E-2</v>
       </c>
       <c r="M54" s="6">
         <f t="shared" si="8"/>
@@ -5299,7 +5299,7 @@
         <v>212.11199999999999</v>
       </c>
       <c r="F55">
-        <v>325.99400000000003</v>
+        <v>319.36799999999999</v>
       </c>
       <c r="G55">
         <v>215.06899999999999</v>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="L55" s="6">
         <f t="shared" si="4"/>
-        <v>1.942053805298647E-2</v>
+        <v>3.9351332837126496E-2</v>
       </c>
       <c r="M55" s="6">
         <f t="shared" si="8"/>
@@ -5352,7 +5352,7 @@
         <v>214.29599999999999</v>
       </c>
       <c r="F56">
-        <v>323.95999999999998</v>
+        <v>317.37099999999998</v>
       </c>
       <c r="G56">
         <v>217.12</v>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="L56" s="6">
         <f t="shared" si="4"/>
-        <v>1.6126801152735702E-2</v>
+        <v>3.6137729993347578E-2</v>
       </c>
       <c r="M56" s="6">
         <f t="shared" si="8"/>
@@ -5405,7 +5405,7 @@
         <v>216.428</v>
       </c>
       <c r="F57">
-        <v>321.20800000000003</v>
+        <v>314.64299999999997</v>
       </c>
       <c r="G57">
         <v>218.63900000000001</v>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="L57" s="6">
         <f t="shared" si="4"/>
-        <v>1.2155790513387754E-2</v>
+        <v>3.2345814532962806E-2</v>
       </c>
       <c r="M57" s="6">
         <f t="shared" si="8"/>
@@ -5458,7 +5458,7 @@
         <v>218.50700000000001</v>
       </c>
       <c r="F58">
-        <v>318.43900000000002</v>
+        <v>311.89800000000002</v>
       </c>
       <c r="G58">
         <v>220.089</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="L58" s="6">
         <f t="shared" si="4"/>
-        <v>4.2762390587354005E-3</v>
+        <v>2.4729227292955479E-2</v>
       </c>
       <c r="M58" s="6">
         <f t="shared" si="8"/>
@@ -5511,7 +5511,7 @@
         <v>220.53299999999999</v>
       </c>
       <c r="F59">
-        <v>315.65499999999997</v>
+        <v>309.13799999999998</v>
       </c>
       <c r="G59">
         <v>221.471</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="L59" s="6">
         <f t="shared" si="4"/>
-        <v>7.272695510394514E-3</v>
+        <v>1.3523414662551385E-2</v>
       </c>
       <c r="M59" s="6">
         <f t="shared" si="8"/>
@@ -5564,7 +5564,7 @@
         <v>222.50399999999999</v>
       </c>
       <c r="F60">
-        <v>312.85500000000002</v>
+        <v>306.36099999999999</v>
       </c>
       <c r="G60">
         <v>222.78299999999999</v>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="L60" s="6">
         <f t="shared" si="4"/>
-        <v>1.4647250156244022E-2</v>
+        <v>6.414005832999164E-3</v>
       </c>
       <c r="M60" s="6">
         <f t="shared" si="8"/>
@@ -5617,7 +5617,7 @@
         <v>224.42</v>
       </c>
       <c r="F61">
-        <v>310.69</v>
+        <v>304.22800000000001</v>
       </c>
       <c r="G61">
         <v>224.494</v>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="L61" s="6">
         <f t="shared" si="4"/>
-        <v>4.0665749824274351E-2</v>
+        <v>1.9021081262800055E-2</v>
       </c>
       <c r="M61" s="6">
         <f t="shared" si="8"/>
@@ -5670,7 +5670,7 @@
         <v>226.279</v>
       </c>
       <c r="F62">
-        <v>307.85300000000001</v>
+        <v>301.41199999999998</v>
       </c>
       <c r="G62">
         <v>225.66800000000001</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="L62" s="6">
         <f t="shared" si="4"/>
-        <v>3.6771411012782973E-2</v>
+        <v>1.5079744346116199E-2</v>
       </c>
       <c r="M62" s="6">
         <f t="shared" si="8"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="L63" s="7">
         <f t="shared" si="10"/>
-        <v>3.5959347440884436E-2</v>
+        <v>3.3150916526503149E-2</v>
       </c>
       <c r="M63" s="4">
         <f t="shared" si="10"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="L64" s="1">
         <f t="shared" si="11"/>
-        <v>2.2100007294625794E-2</v>
+        <v>1.6184598344107241E-2</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
